--- a/Assets/ExcelDatas/Monster.xlsx
+++ b/Assets/ExcelDatas/Monster.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Desktop\어드밴스\기획서\실제 사용할 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085BAD4E-6882-4FC1-A689-C299C96AC848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95957A9E-E990-4601-9868-005D09079F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="16788" windowHeight="11256" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
-    <sheet name="StringTable" sheetId="2" r:id="rId1"/>
+    <sheet name="Define" sheetId="3" r:id="rId1"/>
     <sheet name="MonsterTable" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DESIGN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -60,39 +56,93 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>슬라임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고블린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀도둑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>워호그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>열1</t>
+    <t>Defence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc2</t>
+  </si>
+  <si>
+    <t>Orc3</t>
+  </si>
+  <si>
+    <t>Trap1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스고유 값입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 스트링 데이터 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum 몬스터 : Monster , 함정 : Trap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 체력 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 공격력 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 방어력 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 죽일 시 드랍되는 EXP 수치입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터를 죽일 시 드랍되는 Gold 수치입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체 몬스터가 사용하는 Skill 입니다. SkillTable의 Index  값을 참조하여 가져옵니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +187,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -166,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,11 +237,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -197,6 +258,101 @@
         <vertAlign val="baseline"/>
         <sz val="9"/>
         <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
         <name val="굴림"/>
         <family val="3"/>
         <charset val="129"/>
@@ -304,126 +460,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -438,26 +474,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1C9D8101-4847-41F5-9E77-1F1EFB6A81E4}" name="표1_3" displayName="표1_3" ref="A3:B8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A3:B8" xr:uid="{2A5055BB-49DD-488B-9336-5E216C49AFED}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{95558E17-62D7-4119-8CF5-FD65D945AADA}" name="ID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{779BED82-C2E3-49AC-B0CD-68C9791ACABF}" name="Description" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:F8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:F8" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FEFECF92-0965-4D3F-BCB9-1F1E01EFC324}" name="Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="#Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="AttackDamage" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="열1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:I8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I8" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="Type" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Skill" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,120 +787,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878634DC-F2B6-491E-8EF1-3EE2DFFB3522}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C408E628-92AD-4660-AA65-B2EDABED9D78}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="2" max="2" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -880,127 +965,221 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>1011</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>1012</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>1014</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>500</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10008</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/ExcelDatas/Monster.xlsx
+++ b/Assets/ExcelDatas/Monster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95957A9E-E990-4601-9868-005D09079F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39674B3-65C7-4E31-8229-953D9F9516F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="16788" windowHeight="11256" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>trap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Monster</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,6 +139,14 @@
   </si>
   <si>
     <t>투사체 몬스터가 사용하는 Skill 입니다. SkillTable의 Index  값을 참조하여 가져옵니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trap</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -790,16 +794,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C408E628-92AD-4660-AA65-B2EDABED9D78}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="4"/>
+    <col min="1" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -810,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,10 +828,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -838,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -852,24 +856,24 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,49 +884,49 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -935,21 +939,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -978,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -986,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1007,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1021,22 +1025,22 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1044,7 +1048,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1065,7 +1069,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1094,7 +1098,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1123,7 +1127,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -1152,7 +1156,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>

--- a/Assets/ExcelDatas/Monster.xlsx
+++ b/Assets/ExcelDatas/Monster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39674B3-65C7-4E31-8229-953D9F9516F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A39674B3-65C7-4E31-8229-953D9F9516F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDE96FA-06E8-45AD-AED7-78008F78137B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Trap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +252,26 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -478,18 +501,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:I8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I8" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="Type" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Skill" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:J8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A3:J8" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="Type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Skill" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -798,12 +822,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -817,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -831,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -873,7 +897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,7 +911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,7 +939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -937,13 +961,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -953,7 +977,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -981,8 +1005,11 @@
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1010,8 +1037,11 @@
       <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1037,10 +1067,13 @@
         <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1066,10 +1099,13 @@
         <v>10</v>
       </c>
       <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
         <v>10008</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1095,10 +1131,13 @@
         <v>10</v>
       </c>
       <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
         <v>10008</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1124,10 +1163,13 @@
         <v>10</v>
       </c>
       <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <v>10008</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1153,10 +1195,13 @@
         <v>10</v>
       </c>
       <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <v>10008</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1182,6 +1227,9 @@
         <v>10</v>
       </c>
       <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <v>10008</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/Monster.xlsx
+++ b/Assets/ExcelDatas/Monster.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A39674B3-65C7-4E31-8229-953D9F9516F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDE96FA-06E8-45AD-AED7-78008F78137B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="3" r:id="rId1"/>
+    <sheet name="Define" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="MonsterTable" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Monster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EXP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,6 +147,14 @@
   </si>
   <si>
     <t>Score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -512,8 +516,8 @@
     <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Skill" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Skill" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -822,12 +826,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -838,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -852,10 +856,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,10 +870,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,24 +884,24 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -908,49 +912,49 @@
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -963,11 +967,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -977,7 +981,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1041,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1055,25 +1059,25 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
+    </row>
+    <row r="4" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1102,10 +1106,10 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1134,10 +1138,10 @@
         <v>10</v>
       </c>
       <c r="J5" s="3">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1145,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1169,7 +1173,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1177,31 +1181,31 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
       </c>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="11.25" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1209,28 +1213,28 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>10008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/Monster.xlsx
+++ b/Assets/ExcelDatas/Monster.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28899505-B1EB-43D1-A533-F99FA9281A53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="3" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,6 +155,26 @@
   </si>
   <si>
     <t>Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Local</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL;KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub\Project_Advence\Assets\Resources\SPUM\SPUM_Units\Monster_Stage1_Phase1_Orc1.prefab"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub\Project_Advence\Assets\Resources\SPUM\SPUM_Units\Monster_Stage1_Phase1_Orc2.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +276,26 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -505,19 +544,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:J8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A3:J8" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="Type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Skill" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A3:K25" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="Type" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{E36DCC1B-0496-49B1-A70D-6806B2FDF9F6}" name="Skill" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Monster_Local" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -826,12 +866,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -845,7 +885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -859,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -873,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,7 +927,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -915,7 +955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -929,7 +969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,7 +983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,23 +1005,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="18.3125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1012,8 +1054,11 @@
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,8 +1089,11 @@
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1076,8 +1124,11 @@
       <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1108,8 +1159,11 @@
       <c r="J4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1140,8 +1194,11 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1172,8 +1229,9 @@
       <c r="J6" s="3">
         <v>10008</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1204,8 +1262,9 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="11.25" x14ac:dyDescent="0.3">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1236,6 +1295,177 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/ExcelDatas/Monster.xlsx
+++ b/Assets/ExcelDatas/Monster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28899505-B1EB-43D1-A533-F99FA9281A53}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78942547-9499-47C8-8351-B5A1F32B229B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,14 +159,6 @@
   </si>
   <si>
     <t>Monster_Local</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL;KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -543,6 +535,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:K25" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
@@ -556,8 +552,8 @@
     <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{E36DCC1B-0496-49B1-A70D-6806B2FDF9F6}" name="Skill" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Monster_Local" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{E36DCC1B-0496-49B1-A70D-6806B2FDF9F6}" name="Skill" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Monster_Local" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1008,7 +1004,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1055,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1090,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1160,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1195,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
